--- a/R/analysis/data/Pt_25_Experimental.xlsx
+++ b/R/analysis/data/Pt_25_Experimental.xlsx
@@ -524,7 +524,7 @@
         <v>1.41</v>
       </c>
       <c r="N2" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>0.35</v>
@@ -578,7 +578,7 @@
         <v>0.98</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.17</v>
+        <v>3.17</v>
       </c>
       <c r="M3" t="n">
         <v>1.41</v>
@@ -635,16 +635,16 @@
         <v>2.99</v>
       </c>
       <c r="K4" t="n">
-        <v>5.54</v>
+        <v>1.06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.75</v>
+        <v>3.92</v>
       </c>
       <c r="M4" t="n">
-        <v>7.07</v>
+        <v>1.41</v>
       </c>
       <c r="N4" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>1.57</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.14</v>
+        <v>4.14</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="n">
@@ -813,16 +813,16 @@
         <v>2.17</v>
       </c>
       <c r="K7" t="n">
-        <v>6.82</v>
+        <v>0.96</v>
       </c>
       <c r="L7" t="n">
-        <v>0.68</v>
+        <v>4.82</v>
       </c>
       <c r="M7" t="n">
-        <v>5.66</v>
+        <v>2.83</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0.71</v>
       </c>
       <c r="N8" t="n">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="O8" t="n">
         <v>0.35</v>
@@ -934,7 +934,7 @@
         <v>1.57</v>
       </c>
       <c r="L9" t="n">
-        <v>-3.86</v>
+        <v>3.86</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="n">
@@ -989,16 +989,16 @@
         <v>1.2</v>
       </c>
       <c r="K10" t="n">
-        <v>6.5</v>
+        <v>1.04</v>
       </c>
       <c r="L10" t="n">
-        <v>0.74</v>
+        <v>4.6</v>
       </c>
       <c r="M10" t="n">
-        <v>5.3</v>
+        <v>3.18</v>
       </c>
       <c r="N10" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O10" t="n">
         <v>0.08</v>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
         <v>0.52</v>
@@ -1108,7 +1108,7 @@
         <v>0.9</v>
       </c>
       <c r="L12" t="n">
-        <v>-3.14</v>
+        <v>3.14</v>
       </c>
       <c r="M12"/>
       <c r="N12" t="n">
@@ -1163,16 +1163,16 @@
         <v>2.35</v>
       </c>
       <c r="K13" t="n">
-        <v>5.55</v>
+        <v>1.11</v>
       </c>
       <c r="L13" t="n">
-        <v>0.78</v>
+        <v>3.92</v>
       </c>
       <c r="M13" t="n">
-        <v>4.95</v>
+        <v>0.71</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="O13" t="n">
         <v>0.27</v>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="M14"/>
       <c r="N14" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0.35</v>
@@ -1282,7 +1282,7 @@
         <v>2.41</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.4</v>
+        <v>3.4</v>
       </c>
       <c r="M15" t="n">
         <v>0.58</v>
@@ -1339,16 +1339,16 @@
         <v>3.62</v>
       </c>
       <c r="K16" t="n">
-        <v>6.24</v>
+        <v>1.44</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>4.42</v>
       </c>
       <c r="M16" t="n">
-        <v>4.72</v>
+        <v>1.89</v>
       </c>
       <c r="N16" t="n">
-        <v>1.33</v>
+        <v>3.34</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>2.08</v>
       </c>
       <c r="L18" t="n">
-        <v>-3.33</v>
+        <v>3.33</v>
       </c>
       <c r="M18" t="n">
         <v>0.45</v>
@@ -1519,10 +1519,10 @@
         <v>0.76</v>
       </c>
       <c r="K19" t="n">
-        <v>6.1</v>
+        <v>1.39</v>
       </c>
       <c r="L19" t="n">
-        <v>0.98</v>
+        <v>4.31</v>
       </c>
       <c r="M19" t="n">
         <v>2.69</v>
@@ -1635,10 +1635,10 @@
         <v>1.47</v>
       </c>
       <c r="K21" t="n">
-        <v>2.89</v>
+        <v>0.58</v>
       </c>
       <c r="L21" t="n">
-        <v>-1.33</v>
+        <v>2.67</v>
       </c>
       <c r="M21" t="n">
         <v>0.84</v>
@@ -1693,10 +1693,10 @@
         <v>1.47</v>
       </c>
       <c r="K22" t="n">
-        <v>5.01</v>
+        <v>2.18</v>
       </c>
       <c r="L22" t="n">
-        <v>2.21</v>
+        <v>4.21</v>
       </c>
       <c r="M22"/>
       <c r="N22" t="n">
